--- a/AirQuality-Dataset.xlsx
+++ b/AirQuality-Dataset.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="14">
   <si>
     <t>S.No.</t>
   </si>
@@ -42,12 +42,6 @@
     <t>NO2</t>
   </si>
   <si>
-    <t>Winter</t>
-  </si>
-  <si>
-    <t>Summer</t>
-  </si>
-  <si>
     <t>Monsoon</t>
   </si>
   <si>
@@ -58,6 +52,12 @@
   </si>
   <si>
     <t xml:space="preserve"> PM10</t>
+  </si>
+  <si>
+    <t>winter</t>
+  </si>
+  <si>
+    <t>summer</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,7 +428,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -458,7 +458,7 @@
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>6</v>
@@ -473,7 +473,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3">
         <v>42737</v>
@@ -504,7 +504,9 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C4" s="3">
         <v>42741</v>
       </c>
@@ -534,7 +536,9 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C5" s="3">
         <v>42744</v>
       </c>
@@ -564,7 +568,9 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C6" s="3">
         <v>42748</v>
       </c>
@@ -594,7 +600,9 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C7" s="3">
         <v>42755</v>
       </c>
@@ -624,7 +632,9 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C8" s="3">
         <v>42758</v>
       </c>
@@ -654,7 +664,9 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C9" s="3">
         <v>42762</v>
       </c>
@@ -684,7 +696,9 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C10" s="3">
         <v>42765</v>
       </c>
@@ -715,7 +729,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C11" s="3">
         <v>42860</v>
@@ -746,7 +760,9 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C12" s="3">
         <v>42863</v>
       </c>
@@ -776,7 +792,9 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C13" s="3">
         <v>42867</v>
       </c>
@@ -806,7 +824,9 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C14" s="3">
         <v>42870</v>
       </c>
@@ -836,7 +856,9 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C15" s="3">
         <v>42877</v>
       </c>
@@ -866,7 +888,9 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C16" s="3">
         <v>42884</v>
       </c>
@@ -897,7 +921,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C17" s="3">
         <v>42919</v>
@@ -928,7 +952,9 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C18" s="3">
         <v>42926</v>
       </c>
@@ -958,7 +984,9 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C19" s="3">
         <v>42930</v>
       </c>
@@ -988,7 +1016,9 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C20" s="3">
         <v>42933</v>
       </c>
@@ -1018,7 +1048,9 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C21" s="3">
         <v>42937</v>
       </c>
@@ -1048,7 +1080,9 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C22" s="3">
         <v>42940</v>
       </c>
@@ -1078,7 +1112,9 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C23" s="3">
         <v>42944</v>
       </c>
@@ -1108,7 +1144,9 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C24" s="3">
         <v>42947</v>
       </c>
@@ -1138,7 +1176,9 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C25" s="3">
         <v>42919</v>
       </c>
@@ -1169,7 +1209,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C26" s="3">
         <v>43052</v>
@@ -1200,7 +1240,9 @@
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C27" s="3">
         <v>43056</v>
       </c>
@@ -1230,7 +1272,9 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C28" s="3">
         <v>43059</v>
       </c>
@@ -1260,7 +1304,9 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C29" s="3">
         <v>43063</v>
       </c>
@@ -1290,7 +1336,9 @@
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C30" s="3">
         <v>43066</v>
       </c>
